--- a/qsdsan/systems/bwaise/results/analysis_sysA.xlsx
+++ b/qsdsan/systems/bwaise/results/analysis_sysA.xlsx
@@ -280,10 +280,10 @@
     <t>Discount rate [fraction]</t>
   </si>
   <si>
-    <t>Ch4 cf [kg CO2-eq/kg CH4]</t>
+    <t>CH4 CF [kg CO2-eq/kg CH4]</t>
   </si>
   <si>
-    <t>N2o cf [kg CO2-eq/kg N2O]</t>
+    <t>N2O CF [kg CO2-eq/kg N2O]</t>
   </si>
   <si>
     <t>Electricity price [$/kWh]</t>
@@ -33019,7 +33019,7 @@
         <v>79.82762416384513</v>
       </c>
       <c r="D4">
-        <v>17.39700864955513</v>
+        <v>17.39700864955512</v>
       </c>
       <c r="E4">
         <v>0.28472892318666</v>
@@ -33219,7 +33219,7 @@
         <v>81.73106522243057</v>
       </c>
       <c r="D8">
-        <v>19.55852342640353</v>
+        <v>19.55852342640352</v>
       </c>
       <c r="E8">
         <v>0.203217847253242</v>
@@ -33269,7 +33269,7 @@
         <v>81.21697327224281</v>
       </c>
       <c r="D9">
-        <v>16.80270219814712</v>
+        <v>16.80270219814711</v>
       </c>
       <c r="E9">
         <v>0.2532595784938483</v>
@@ -33319,7 +33319,7 @@
         <v>75.64915785667563</v>
       </c>
       <c r="D10">
-        <v>18.23164163232339</v>
+        <v>18.2316416323234</v>
       </c>
       <c r="E10">
         <v>0.1673434528501541</v>
@@ -34169,7 +34169,7 @@
         <v>81.15894475702859</v>
       </c>
       <c r="D27">
-        <v>19.30594995479749</v>
+        <v>19.3059499547975</v>
       </c>
       <c r="E27">
         <v>0.3596037941390816</v>
@@ -34919,7 +34919,7 @@
         <v>79.70435619857977</v>
       </c>
       <c r="D42">
-        <v>21.12450723414205</v>
+        <v>21.12450723414206</v>
       </c>
       <c r="E42">
         <v>0.2262033307905488</v>
@@ -35219,7 +35219,7 @@
         <v>81.32187546094499</v>
       </c>
       <c r="D48">
-        <v>29.43617430452139</v>
+        <v>29.4361743045214</v>
       </c>
       <c r="E48">
         <v>0.2648422110540548</v>
@@ -35319,7 +35319,7 @@
         <v>79.25752399065291</v>
       </c>
       <c r="D50">
-        <v>21.18561692690549</v>
+        <v>21.18561692690548</v>
       </c>
       <c r="E50">
         <v>0.3322137530563953</v>
@@ -35569,7 +35569,7 @@
         <v>77.54732820109555</v>
       </c>
       <c r="D55">
-        <v>22.80639635831837</v>
+        <v>22.80639635831838</v>
       </c>
       <c r="E55">
         <v>0.3772032027178251</v>
@@ -35819,7 +35819,7 @@
         <v>80.40720888139295</v>
       </c>
       <c r="D60">
-        <v>22.96772009560139</v>
+        <v>22.96772009560138</v>
       </c>
       <c r="E60">
         <v>0.3667440853657682</v>
@@ -36019,7 +36019,7 @@
         <v>79.79870259497439</v>
       </c>
       <c r="D64">
-        <v>27.04716623379051</v>
+        <v>27.04716623379052</v>
       </c>
       <c r="E64">
         <v>0.1715573497415091</v>
@@ -36419,7 +36419,7 @@
         <v>79.57295855261104</v>
       </c>
       <c r="D72">
-        <v>21.16505215511128</v>
+        <v>21.16505215511129</v>
       </c>
       <c r="E72">
         <v>0.3841633499753858</v>
@@ -36869,7 +36869,7 @@
         <v>77.89446326382691</v>
       </c>
       <c r="D81">
-        <v>32.77024212504669</v>
+        <v>32.7702421250467</v>
       </c>
       <c r="E81">
         <v>0.3535245981745109</v>
@@ -37419,7 +37419,7 @@
         <v>74.07467958279935</v>
       </c>
       <c r="D92">
-        <v>18.00814715306765</v>
+        <v>18.00814715306764</v>
       </c>
       <c r="E92">
         <v>0.2184225419127908</v>
@@ -37619,7 +37619,7 @@
         <v>74.81052212326517</v>
       </c>
       <c r="D96">
-        <v>21.93123112850457</v>
+        <v>21.93123112850458</v>
       </c>
       <c r="E96">
         <v>0.2345029439812502</v>
@@ -37719,7 +37719,7 @@
         <v>75.50033242264718</v>
       </c>
       <c r="D98">
-        <v>25.08357123941039</v>
+        <v>25.08357123941038</v>
       </c>
       <c r="E98">
         <v>0.3005395420230417</v>
@@ -37819,7 +37819,7 @@
         <v>80.30183650011951</v>
       </c>
       <c r="D100">
-        <v>15.45537709577176</v>
+        <v>15.45537709577175</v>
       </c>
       <c r="E100">
         <v>0.3017530893476548</v>
@@ -37919,7 +37919,7 @@
         <v>76.5178602186374</v>
       </c>
       <c r="D102">
-        <v>20.08749525510355</v>
+        <v>20.08749525510354</v>
       </c>
       <c r="E102">
         <v>0.4216837456736515</v>
@@ -38321,7 +38321,7 @@
         <v>79.87330403688311</v>
       </c>
       <c r="D8">
-        <v>22.97570280809038</v>
+        <v>22.97570280809037</v>
       </c>
       <c r="E8">
         <v>0.335181791892539</v>
@@ -38421,7 +38421,7 @@
         <v>82.90125018520484</v>
       </c>
       <c r="D10">
-        <v>32.77024212504669</v>
+        <v>32.7702421250467</v>
       </c>
       <c r="E10">
         <v>0.5463526623247118</v>
@@ -39325,7 +39325,7 @@
         <v>79.82762416384513</v>
       </c>
       <c r="DD4">
-        <v>17.39700864955513</v>
+        <v>17.39700864955512</v>
       </c>
       <c r="DE4">
         <v>0.28472892318666</v>
@@ -40773,7 +40773,7 @@
         <v>81.73106522243057</v>
       </c>
       <c r="DD8">
-        <v>19.55852342640353</v>
+        <v>19.55852342640352</v>
       </c>
       <c r="DE8">
         <v>0.203217847253242</v>
@@ -41135,7 +41135,7 @@
         <v>81.21697327224281</v>
       </c>
       <c r="DD9">
-        <v>16.80270219814712</v>
+        <v>16.80270219814711</v>
       </c>
       <c r="DE9">
         <v>0.2532595784938483</v>
@@ -41497,7 +41497,7 @@
         <v>75.64915785667563</v>
       </c>
       <c r="DD10">
-        <v>18.23164163232339</v>
+        <v>18.2316416323234</v>
       </c>
       <c r="DE10">
         <v>0.1673434528501541</v>
@@ -47651,7 +47651,7 @@
         <v>81.15894475702859</v>
       </c>
       <c r="DD27">
-        <v>19.30594995479749</v>
+        <v>19.3059499547975</v>
       </c>
       <c r="DE27">
         <v>0.3596037941390816</v>
@@ -53081,7 +53081,7 @@
         <v>79.70435619857977</v>
       </c>
       <c r="DD42">
-        <v>21.12450723414205</v>
+        <v>21.12450723414206</v>
       </c>
       <c r="DE42">
         <v>0.2262033307905488</v>
@@ -55253,7 +55253,7 @@
         <v>81.32187546094499</v>
       </c>
       <c r="DD48">
-        <v>29.43617430452139</v>
+        <v>29.4361743045214</v>
       </c>
       <c r="DE48">
         <v>0.2648422110540548</v>
@@ -55977,7 +55977,7 @@
         <v>79.25752399065291</v>
       </c>
       <c r="DD50">
-        <v>21.18561692690549</v>
+        <v>21.18561692690548</v>
       </c>
       <c r="DE50">
         <v>0.3322137530563953</v>
@@ -57787,7 +57787,7 @@
         <v>77.54732820109555</v>
       </c>
       <c r="DD55">
-        <v>22.80639635831837</v>
+        <v>22.80639635831838</v>
       </c>
       <c r="DE55">
         <v>0.3772032027178251</v>
@@ -59597,7 +59597,7 @@
         <v>80.40720888139295</v>
       </c>
       <c r="DD60">
-        <v>22.96772009560139</v>
+        <v>22.96772009560138</v>
       </c>
       <c r="DE60">
         <v>0.3667440853657682</v>
@@ -61045,7 +61045,7 @@
         <v>79.79870259497439</v>
       </c>
       <c r="DD64">
-        <v>27.04716623379051</v>
+        <v>27.04716623379052</v>
       </c>
       <c r="DE64">
         <v>0.1715573497415091</v>
@@ -63941,7 +63941,7 @@
         <v>79.57295855261104</v>
       </c>
       <c r="DD72">
-        <v>21.16505215511128</v>
+        <v>21.16505215511129</v>
       </c>
       <c r="DE72">
         <v>0.3841633499753858</v>
@@ -67199,7 +67199,7 @@
         <v>77.89446326382691</v>
       </c>
       <c r="DD81">
-        <v>32.77024212504669</v>
+        <v>32.7702421250467</v>
       </c>
       <c r="DE81">
         <v>0.3535245981745109</v>
@@ -71181,7 +71181,7 @@
         <v>74.07467958279935</v>
       </c>
       <c r="DD92">
-        <v>18.00814715306765</v>
+        <v>18.00814715306764</v>
       </c>
       <c r="DE92">
         <v>0.2184225419127908</v>
@@ -72629,7 +72629,7 @@
         <v>74.81052212326517</v>
       </c>
       <c r="DD96">
-        <v>21.93123112850457</v>
+        <v>21.93123112850458</v>
       </c>
       <c r="DE96">
         <v>0.2345029439812502</v>
@@ -73353,7 +73353,7 @@
         <v>75.50033242264718</v>
       </c>
       <c r="DD98">
-        <v>25.08357123941039</v>
+        <v>25.08357123941038</v>
       </c>
       <c r="DE98">
         <v>0.3005395420230417</v>
@@ -74077,7 +74077,7 @@
         <v>80.30183650011951</v>
       </c>
       <c r="DD100">
-        <v>15.45537709577176</v>
+        <v>15.45537709577175</v>
       </c>
       <c r="DE100">
         <v>0.3017530893476548</v>
@@ -74801,7 +74801,7 @@
         <v>76.5178602186374</v>
       </c>
       <c r="DD102">
-        <v>20.08749525510355</v>
+        <v>20.08749525510354</v>
       </c>
       <c r="DE102">
         <v>0.4216837456736515</v>
